--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horus\Documents\UiPath\フォルダサイズ調査\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horus\Documents\UiPath\フォルダサイズ調査-InputOutput別ファイルver-\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE82D324-F162-477A-9553-E2D21099B1C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A909989-99F8-473C-AB58-3859B62673CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -163,13 +163,6 @@
   </si>
   <si>
     <t>This is a logging field which allows you to group the log data of two or more subprocesses under the same business process name</t>
-  </si>
-  <si>
-    <t>フォルダサイズ調査</t>
-    <rPh sb="7" eb="9">
-      <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>InputData_Path</t>
@@ -180,21 +173,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フォルダ一覧</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>OutputData_Path</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C:\Users\horus\Desktop\Data\フォルダ一覧.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\horus\Desktop\Data\フォルダサイズ.xlsx</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -232,6 +211,35 @@
   </si>
   <si>
     <t>Input</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\hoge\hoge.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C:\fuga\fuga.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理対象のシート名</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sheet1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FolderSizeSurvey</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -617,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -678,7 +686,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>46</v>
@@ -687,44 +695,47 @@
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.35"/>
